--- a/pictures/Colombia_Rt_SB.xlsx
+++ b/pictures/Colombia_Rt_SB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>CI.lower.</t>
   </si>
@@ -24,12 +24,6 @@
   </si>
   <si>
     <t>dates</t>
-  </si>
-  <si>
-    <t>2020-03-09</t>
-  </si>
-  <si>
-    <t>2020-03-10</t>
   </si>
   <si>
     <t>2020-03-11</t>
@@ -127,13 +121,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.31</v>
+        <v>0.9</v>
       </c>
       <c r="C2" t="n">
-        <v>4.44</v>
+        <v>8.75</v>
       </c>
       <c r="D2" t="n">
-        <v>2.36</v>
+        <v>5.34</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -144,13 +138,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0300000000000002</v>
+        <v>5.26</v>
       </c>
       <c r="D3" t="n">
-        <v>1.48</v>
+        <v>2.69</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -161,13 +155,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="C4" t="n">
-        <v>2.86</v>
+        <v>3.97</v>
       </c>
       <c r="D4" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -178,13 +172,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1.87</v>
+        <v>1.09</v>
       </c>
       <c r="C5" t="n">
-        <v>3.8200000000000003</v>
+        <v>4.8</v>
       </c>
       <c r="D5" t="n">
-        <v>2.89</v>
+        <v>3.11</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -195,13 +189,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>1.45</v>
+        <v>0.6</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0500000000000003</v>
+        <v>3.68</v>
       </c>
       <c r="D6" t="n">
-        <v>2.2800000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -212,13 +206,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>2.19</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>3.45</v>
+        <v>3.22</v>
       </c>
       <c r="D7" t="n">
-        <v>2.84</v>
+        <v>1.93</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -229,13 +223,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>1.6300000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="C8" t="n">
-        <v>2.71</v>
+        <v>2.99</v>
       </c>
       <c r="D8" t="n">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -246,13 +240,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1.3800000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="C9" t="n">
-        <v>2.34</v>
+        <v>2.94</v>
       </c>
       <c r="D9" t="n">
-        <v>1.87</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -263,50 +257,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="C10" t="n">
-        <v>2.18</v>
+        <v>3.2600000000000002</v>
       </c>
       <c r="D10" t="n">
-        <v>1.75</v>
+        <v>2.36</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1.6300000000000001</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
